--- a/PLTR.xlsx
+++ b/PLTR.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ayanpussurmanov/Finance/financial_models/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C5C851AE-AAF5-1E41-B438-D0EB7E9A4742}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CF1D258F-06DE-2B48-AC68-6DF283A95D8E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="740" windowWidth="14320" windowHeight="18380" xr2:uid="{FFDE8198-0A80-C04D-964E-60CE6D882A3C}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="43">
   <si>
     <t>Price</t>
   </si>
@@ -160,6 +160,12 @@
   </si>
   <si>
     <t>interest expense</t>
+  </si>
+  <si>
+    <t>Q125</t>
+  </si>
+  <si>
+    <t>Q225</t>
   </si>
 </sst>
 </file>
@@ -612,10 +618,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A25CBCAB-95B0-CA45-9960-54718EF86824}">
-  <dimension ref="K1:M15"/>
+  <dimension ref="J1:M20"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="L11" sqref="L11"/>
+      <selection activeCell="M6" sqref="M6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -628,7 +634,7 @@
   <sheetData>
     <row r="1" spans="11:13" x14ac:dyDescent="0.2">
       <c r="M1" s="14">
-        <v>45677</v>
+        <v>45692</v>
       </c>
     </row>
     <row r="2" spans="11:13" x14ac:dyDescent="0.2">
@@ -648,7 +654,7 @@
         <v>2269.8000000000002</v>
       </c>
       <c r="M3" s="1" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="4" spans="11:13" x14ac:dyDescent="0.2">
@@ -665,11 +671,11 @@
         <v>3</v>
       </c>
       <c r="L5" s="4">
-        <f>768.71+3795.949</f>
-        <v>4564.6589999999997</v>
+        <f>2098.524+3131.463</f>
+        <v>5229.9870000000001</v>
       </c>
       <c r="M5" s="1" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="6" spans="11:13" x14ac:dyDescent="0.2">
@@ -680,7 +686,7 @@
         <v>0</v>
       </c>
       <c r="M6" s="1" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="7" spans="11:13" x14ac:dyDescent="0.2">
@@ -689,7 +695,7 @@
       </c>
       <c r="L7" s="4">
         <f>L4-L5+L6</f>
-        <v>158860.94099999999</v>
+        <v>158195.61300000001</v>
       </c>
     </row>
     <row r="10" spans="11:13" x14ac:dyDescent="0.2">
@@ -713,8 +719,8 @@
         <v>32</v>
       </c>
       <c r="L12" s="3">
-        <f>NPV(L11,Model!S20:FB20)+L5-L6</f>
-        <v>75256.629400132573</v>
+        <f>NPV(L11,Model!U20:FD20)+L5-L6</f>
+        <v>75532.505510154049</v>
       </c>
     </row>
     <row r="13" spans="11:13" x14ac:dyDescent="0.2">
@@ -723,27 +729,50 @@
       </c>
       <c r="L13" s="8">
         <f>L12/L3</f>
-        <v>33.155621376391124</v>
+        <v>33.277163410941071</v>
       </c>
     </row>
     <row r="15" spans="11:13" x14ac:dyDescent="0.2">
       <c r="L15" s="5">
         <f>L13/L2-1</f>
-        <v>-0.53950525866123433</v>
+        <v>-0.5378171748480407</v>
+      </c>
+    </row>
+    <row r="19" spans="10:12" x14ac:dyDescent="0.2">
+      <c r="J19" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="K19" s="14">
+        <v>45677</v>
+      </c>
+      <c r="L19" s="3">
+        <v>33.155621376391124</v>
+      </c>
+    </row>
+    <row r="20" spans="10:12" x14ac:dyDescent="0.2">
+      <c r="J20" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="K20" s="14">
+        <v>45692</v>
+      </c>
+      <c r="L20" s="3">
+        <v>33.277163410941071</v>
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="5" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D0C483DC-5572-5441-9E7B-FD798376FD96}">
-  <dimension ref="A1:FB36"/>
+  <dimension ref="A1:FD36"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="2" topLeftCell="L1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="Q31" sqref="Q31"/>
+      <pane xSplit="2" topLeftCell="O1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="U28" sqref="U28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -754,24 +783,25 @@
     <col min="4" max="4" width="8.83203125" style="1" bestFit="1" customWidth="1"/>
     <col min="5" max="6" width="8.1640625" style="1" bestFit="1" customWidth="1"/>
     <col min="7" max="8" width="8.83203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="8.1640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="10.83203125" style="1"/>
-    <col min="12" max="12" width="10" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="8.83203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="8.1640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="9.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="13" width="10.83203125" style="1"/>
     <col min="14" max="14" width="10" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="16" width="8.83203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="18" width="8.1640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="26" width="10.83203125" style="1"/>
-    <col min="27" max="27" width="7.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="28" max="16384" width="10.83203125" style="1"/>
+    <col min="15" max="15" width="8.83203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="10" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="18" width="8.83203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="20" width="8.1640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="28" width="10.83203125" style="1"/>
+    <col min="29" max="29" width="7.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="30" max="16384" width="10.83203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="4" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C4" s="1" t="s">
         <v>7</v>
       </c>
@@ -796,59 +826,65 @@
       <c r="J4" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="L4" s="1">
+      <c r="K4" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="L4" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="N4" s="1">
         <v>2018</v>
       </c>
-      <c r="M4" s="1">
+      <c r="O4" s="1">
         <v>2019</v>
       </c>
-      <c r="N4" s="1">
+      <c r="P4" s="1">
         <v>2020</v>
       </c>
-      <c r="O4" s="1">
+      <c r="Q4" s="1">
         <v>2021</v>
       </c>
-      <c r="P4" s="1">
+      <c r="R4" s="1">
         <v>2022</v>
       </c>
-      <c r="Q4" s="1">
+      <c r="S4" s="1">
         <v>2023</v>
       </c>
-      <c r="R4" s="1">
+      <c r="T4" s="1">
         <v>2024</v>
       </c>
-      <c r="S4" s="1">
+      <c r="U4" s="1">
         <v>2025</v>
       </c>
-      <c r="T4" s="1">
+      <c r="V4" s="1">
         <v>2026</v>
       </c>
-      <c r="U4" s="1">
+      <c r="W4" s="1">
         <v>2027</v>
       </c>
-      <c r="V4" s="1">
+      <c r="X4" s="1">
         <v>2028</v>
       </c>
-      <c r="W4" s="1">
+      <c r="Y4" s="1">
         <v>2029</v>
       </c>
-      <c r="X4" s="1">
+      <c r="Z4" s="1">
         <v>2030</v>
       </c>
-      <c r="Y4" s="1">
+      <c r="AA4" s="1">
         <v>2031</v>
       </c>
-      <c r="Z4" s="1">
+      <c r="AB4" s="1">
         <v>2032</v>
       </c>
-      <c r="AA4" s="1">
+      <c r="AC4" s="1">
         <v>2033</v>
       </c>
-      <c r="AB4" s="1">
+      <c r="AD4" s="1">
         <v>2024</v>
       </c>
     </row>
-    <row r="5" spans="1:28" s="9" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:30" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B5" s="9" t="s">
         <v>13</v>
       </c>
@@ -862,7 +898,7 @@
         <v>558.15899999999999</v>
       </c>
       <c r="F5" s="10">
-        <f>Q5-SUM(C5:E5)</f>
+        <f>S5-SUM(C5:E5)</f>
         <v>608.34999999999991</v>
       </c>
       <c r="G5" s="10">
@@ -875,74 +911,81 @@
         <v>725.51599999999996</v>
       </c>
       <c r="J5" s="10">
-        <f>F5*1.277</f>
-        <v>776.86294999999984</v>
-      </c>
-      <c r="K5" s="10"/>
-      <c r="L5" s="9">
+        <v>827.51900000000001</v>
+      </c>
+      <c r="K5" s="10">
+        <f>G5*1.33</f>
+        <v>843.66953999999998</v>
+      </c>
+      <c r="L5" s="10">
+        <f>H5*1.3</f>
+        <v>881.57420000000002</v>
+      </c>
+      <c r="M5" s="10"/>
+      <c r="N5" s="9">
         <v>595.40899999999999</v>
       </c>
-      <c r="M5" s="10">
+      <c r="O5" s="10">
         <v>742.55499999999995</v>
       </c>
-      <c r="N5" s="10">
+      <c r="P5" s="10">
         <v>1092.673</v>
       </c>
-      <c r="O5" s="10">
+      <c r="Q5" s="10">
         <v>1541.8889999999999</v>
       </c>
-      <c r="P5" s="10">
+      <c r="R5" s="10">
         <v>1905.8710000000001</v>
       </c>
-      <c r="Q5" s="10">
+      <c r="S5" s="10">
         <v>2225.0120000000002</v>
       </c>
-      <c r="R5" s="10">
+      <c r="T5" s="10">
         <f>SUM(G5:J5)</f>
-        <v>2814.8509499999996</v>
-      </c>
-      <c r="S5" s="10">
-        <f>R5+R5*S24</f>
-        <v>3511.5265601249994</v>
-      </c>
-      <c r="T5" s="10">
-        <f t="shared" ref="T5:AB5" si="0">S5+S5*T24</f>
-        <v>4564.9845281624994</v>
+        <v>2865.5069999999996</v>
       </c>
       <c r="U5" s="10">
-        <f t="shared" si="0"/>
-        <v>5843.1801960479988</v>
+        <f>T5+T5*U24</f>
+        <v>3709.3988114999993</v>
       </c>
       <c r="V5" s="10">
-        <f t="shared" si="0"/>
-        <v>7362.4070470204788</v>
+        <f t="shared" ref="V5:AD5" si="0">U5+U5*V24</f>
+        <v>4525.4665500299989</v>
       </c>
       <c r="W5" s="10">
         <f t="shared" si="0"/>
-        <v>9129.3847383053944</v>
+        <v>5792.5971840383991</v>
       </c>
       <c r="X5" s="10">
         <f t="shared" si="0"/>
-        <v>11137.849380732581</v>
+        <v>7298.672451888383</v>
       </c>
       <c r="Y5" s="10">
         <f t="shared" si="0"/>
-        <v>13365.419256879097</v>
+        <v>9050.3538403415951</v>
       </c>
       <c r="Z5" s="10">
         <f t="shared" si="0"/>
-        <v>15370.232145410961</v>
+        <v>11041.431685216747</v>
       </c>
       <c r="AA5" s="10">
         <f t="shared" si="0"/>
-        <v>16907.255359952058</v>
+        <v>13249.718022260096</v>
       </c>
       <c r="AB5" s="10">
         <f t="shared" si="0"/>
-        <v>17752.61812794966</v>
-      </c>
-    </row>
-    <row r="6" spans="1:28" x14ac:dyDescent="0.2">
+        <v>15237.175725599111</v>
+      </c>
+      <c r="AC5" s="10">
+        <f t="shared" si="0"/>
+        <v>16760.893298159022</v>
+      </c>
+      <c r="AD5" s="10">
+        <f t="shared" si="0"/>
+        <v>17598.937963066972</v>
+      </c>
+    </row>
+    <row r="6" spans="1:30" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>14</v>
       </c>
@@ -956,7 +999,7 @@
         <v>107.922</v>
       </c>
       <c r="F6" s="4">
-        <f>Q6-SUM(C6:E6)</f>
+        <f>S6-SUM(C6:E6)</f>
         <v>108.63900000000001</v>
       </c>
       <c r="G6" s="4">
@@ -969,42 +1012,49 @@
         <v>146.63900000000001</v>
       </c>
       <c r="J6" s="4">
-        <f>F6*1.23</f>
-        <v>133.62597000000002</v>
-      </c>
-      <c r="K6" s="4"/>
-      <c r="L6" s="1">
+        <v>174.53299999999999</v>
+      </c>
+      <c r="K6" s="4">
+        <f>G6*1.33</f>
+        <v>154.62048000000001</v>
+      </c>
+      <c r="L6" s="4">
+        <f>H6*1.3</f>
+        <v>167.13060000000002</v>
+      </c>
+      <c r="M6" s="4"/>
+      <c r="N6" s="1">
         <v>165.40100000000001</v>
       </c>
-      <c r="M6" s="4">
+      <c r="O6" s="4">
         <v>242.37299999999999</v>
       </c>
-      <c r="N6" s="4">
+      <c r="P6" s="4">
         <v>352.54700000000003</v>
       </c>
-      <c r="O6" s="4">
+      <c r="Q6" s="4">
         <v>339.404</v>
       </c>
-      <c r="P6" s="4">
+      <c r="R6" s="4">
         <v>408.54899999999998</v>
       </c>
-      <c r="Q6" s="4">
+      <c r="S6" s="4">
         <v>431.10500000000002</v>
       </c>
-      <c r="R6" s="4">
-        <f t="shared" ref="R6:R19" si="1">SUM(G6:J6)</f>
-        <v>525.08297000000005</v>
-      </c>
-      <c r="S6" s="4"/>
-      <c r="T6" s="4"/>
+      <c r="T6" s="4">
+        <f t="shared" ref="T6:T19" si="1">SUM(G6:J6)</f>
+        <v>565.99</v>
+      </c>
       <c r="U6" s="4"/>
       <c r="V6" s="4"/>
       <c r="W6" s="4"/>
       <c r="X6" s="4"/>
       <c r="Y6" s="4"/>
       <c r="Z6" s="4"/>
-    </row>
-    <row r="7" spans="1:28" s="11" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="AA6" s="4"/>
+      <c r="AB6" s="4"/>
+    </row>
+    <row r="7" spans="1:30" s="11" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B7" s="11" t="s">
         <v>15</v>
       </c>
@@ -1038,47 +1088,55 @@
       </c>
       <c r="J7" s="12">
         <f>J5-J6</f>
-        <v>643.23697999999979</v>
-      </c>
-      <c r="K7" s="12"/>
+        <v>652.98599999999999</v>
+      </c>
+      <c r="K7" s="12">
+        <f>K5-K6</f>
+        <v>689.04905999999994</v>
+      </c>
       <c r="L7" s="12">
         <f>L5-L6</f>
-        <v>430.00799999999998</v>
-      </c>
-      <c r="M7" s="12">
-        <f>M5-M6</f>
-        <v>500.18199999999996</v>
-      </c>
+        <v>714.44360000000006</v>
+      </c>
+      <c r="M7" s="12"/>
       <c r="N7" s="12">
         <f>N5-N6</f>
+        <v>430.00799999999998</v>
+      </c>
+      <c r="O7" s="12">
+        <f>O5-O6</f>
+        <v>500.18199999999996</v>
+      </c>
+      <c r="P7" s="12">
+        <f>P5-P6</f>
         <v>740.12599999999998</v>
       </c>
-      <c r="O7" s="12">
-        <f t="shared" ref="O7:Q7" si="3">O5-O6</f>
+      <c r="Q7" s="12">
+        <f t="shared" ref="Q7:S7" si="3">Q5-Q6</f>
         <v>1202.4849999999999</v>
       </c>
-      <c r="P7" s="12">
+      <c r="R7" s="12">
         <f t="shared" si="3"/>
         <v>1497.3220000000001</v>
       </c>
-      <c r="Q7" s="12">
+      <c r="S7" s="12">
         <f t="shared" si="3"/>
         <v>1793.9070000000002</v>
       </c>
-      <c r="R7" s="12">
-        <f>R5-R6</f>
-        <v>2289.7679799999996</v>
-      </c>
-      <c r="S7" s="12"/>
-      <c r="T7" s="12"/>
+      <c r="T7" s="12">
+        <f>T5-T6</f>
+        <v>2299.5169999999998</v>
+      </c>
       <c r="U7" s="12"/>
       <c r="V7" s="12"/>
       <c r="W7" s="12"/>
       <c r="X7" s="12"/>
       <c r="Y7" s="12"/>
       <c r="Z7" s="12"/>
-    </row>
-    <row r="8" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AA7" s="12"/>
+      <c r="AB7" s="12"/>
+    </row>
+    <row r="8" spans="1:30" x14ac:dyDescent="0.2">
       <c r="B8" s="1" t="s">
         <v>37</v>
       </c>
@@ -1092,7 +1150,7 @@
         <v>176.37299999999999</v>
       </c>
       <c r="F8" s="4">
-        <f>Q8-SUM(C8:E8)</f>
+        <f>S8-SUM(C8:E8)</f>
         <v>197.36300000000006</v>
       </c>
       <c r="G8" s="4">
@@ -1105,42 +1163,46 @@
         <v>209.47399999999999</v>
       </c>
       <c r="J8" s="4">
-        <f>I8</f>
-        <v>209.47399999999999</v>
-      </c>
-      <c r="K8" s="4"/>
-      <c r="L8" s="1">
+        <v>288.29500000000002</v>
+      </c>
+      <c r="K8" s="4">
+        <f>J8</f>
+        <v>288.29500000000002</v>
+      </c>
+      <c r="L8" s="4"/>
+      <c r="M8" s="4"/>
+      <c r="N8" s="1">
         <v>461.762</v>
       </c>
-      <c r="M8" s="4">
+      <c r="O8" s="4">
         <v>450.12</v>
       </c>
-      <c r="N8" s="4">
+      <c r="P8" s="4">
         <v>683.70100000000002</v>
       </c>
-      <c r="O8" s="4">
+      <c r="Q8" s="4">
         <v>614.51199999999994</v>
       </c>
-      <c r="P8" s="4">
+      <c r="R8" s="4">
         <v>702.51099999999997</v>
       </c>
-      <c r="Q8" s="4">
+      <c r="S8" s="4">
         <v>744.99199999999996</v>
       </c>
-      <c r="R8" s="4">
+      <c r="T8" s="4">
         <f t="shared" si="1"/>
-        <v>808.93399999999997</v>
-      </c>
-      <c r="S8" s="4"/>
-      <c r="T8" s="4"/>
+        <v>887.75500000000011</v>
+      </c>
       <c r="U8" s="4"/>
       <c r="V8" s="4"/>
       <c r="W8" s="4"/>
       <c r="X8" s="4"/>
       <c r="Y8" s="4"/>
       <c r="Z8" s="4"/>
-    </row>
-    <row r="9" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AA8" s="4"/>
+      <c r="AB8" s="4"/>
+    </row>
+    <row r="9" spans="1:30" x14ac:dyDescent="0.2">
       <c r="B9" s="1" t="s">
         <v>16</v>
       </c>
@@ -1154,7 +1216,7 @@
         <v>105.708</v>
       </c>
       <c r="F9" s="4">
-        <f>Q9-SUM(C9:E9)</f>
+        <f>S9-SUM(C9:E9)</f>
         <v>109.28300000000002</v>
       </c>
       <c r="G9" s="4">
@@ -1167,42 +1229,46 @@
         <v>117.55500000000001</v>
       </c>
       <c r="J9" s="4">
-        <f>I9</f>
-        <v>117.55500000000001</v>
-      </c>
-      <c r="K9" s="4"/>
-      <c r="L9" s="1">
+        <v>171.50200000000001</v>
+      </c>
+      <c r="K9" s="4">
+        <f>J9</f>
+        <v>171.50200000000001</v>
+      </c>
+      <c r="L9" s="4"/>
+      <c r="M9" s="4"/>
+      <c r="N9" s="1">
         <v>285.45100000000002</v>
       </c>
-      <c r="M9" s="4">
+      <c r="O9" s="4">
         <v>305.56299999999999</v>
       </c>
-      <c r="N9" s="4">
+      <c r="P9" s="4">
         <v>560.66</v>
       </c>
-      <c r="O9" s="4">
+      <c r="Q9" s="4">
         <v>387.48700000000002</v>
       </c>
-      <c r="P9" s="4">
+      <c r="R9" s="4">
         <v>359.67899999999997</v>
       </c>
-      <c r="Q9" s="4">
+      <c r="S9" s="4">
         <v>404.62400000000002</v>
       </c>
-      <c r="R9" s="4">
+      <c r="T9" s="4">
         <f t="shared" si="1"/>
-        <v>453.93100000000004</v>
-      </c>
-      <c r="S9" s="4"/>
-      <c r="T9" s="4"/>
+        <v>507.87800000000004</v>
+      </c>
       <c r="U9" s="4"/>
       <c r="V9" s="4"/>
       <c r="W9" s="4"/>
       <c r="X9" s="4"/>
       <c r="Y9" s="4"/>
       <c r="Z9" s="4"/>
-    </row>
-    <row r="10" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AA9" s="4"/>
+      <c r="AB9" s="4"/>
+    </row>
+    <row r="10" spans="1:30" x14ac:dyDescent="0.2">
       <c r="B10" s="1" t="s">
         <v>38</v>
       </c>
@@ -1216,7 +1282,7 @@
         <v>128.173</v>
       </c>
       <c r="F10" s="4">
-        <f>Q10-SUM(C10:E10)</f>
+        <f>S10-SUM(C10:E10)</f>
         <v>127.27100000000007</v>
       </c>
       <c r="G10" s="4">
@@ -1229,41 +1295,44 @@
         <v>138.708</v>
       </c>
       <c r="J10" s="4">
-        <f>I10</f>
-        <v>138.708</v>
-      </c>
-      <c r="L10" s="1">
+        <v>182.14599999999999</v>
+      </c>
+      <c r="K10" s="4">
+        <f>J10</f>
+        <v>182.14599999999999</v>
+      </c>
+      <c r="N10" s="1">
         <v>306.23500000000001</v>
       </c>
-      <c r="M10" s="4">
+      <c r="O10" s="4">
         <v>320.94299999999998</v>
       </c>
-      <c r="N10" s="4">
+      <c r="P10" s="4">
         <v>669.44399999999996</v>
       </c>
-      <c r="O10" s="4">
+      <c r="Q10" s="4">
         <v>611.53200000000004</v>
       </c>
-      <c r="P10" s="4">
+      <c r="R10" s="4">
         <v>596.33299999999997</v>
       </c>
-      <c r="Q10" s="4">
+      <c r="S10" s="4">
         <v>524.32500000000005</v>
       </c>
-      <c r="R10" s="4">
+      <c r="T10" s="4">
         <f t="shared" si="1"/>
-        <v>550.04300000000001</v>
-      </c>
-      <c r="S10" s="4"/>
-      <c r="T10" s="4"/>
+        <v>593.48099999999999</v>
+      </c>
       <c r="U10" s="4"/>
       <c r="V10" s="4"/>
       <c r="W10" s="4"/>
       <c r="X10" s="4"/>
       <c r="Y10" s="4"/>
       <c r="Z10" s="4"/>
-    </row>
-    <row r="11" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AA10" s="4"/>
+      <c r="AB10" s="4"/>
+    </row>
+    <row r="11" spans="1:30" x14ac:dyDescent="0.2">
       <c r="B11" s="1" t="s">
         <v>17</v>
       </c>
@@ -1277,7 +1346,7 @@
         <v>0</v>
       </c>
       <c r="F11" s="4">
-        <f>Q11-SUM(C11:E11)</f>
+        <f>S11-SUM(C11:E11)</f>
         <v>0</v>
       </c>
       <c r="G11" s="1">
@@ -1293,13 +1362,9 @@
         <v>0</v>
       </c>
       <c r="K11" s="4"/>
-      <c r="L11" s="1">
-        <v>0</v>
-      </c>
-      <c r="M11" s="4">
-        <v>0</v>
-      </c>
-      <c r="N11" s="4">
+      <c r="L11" s="4"/>
+      <c r="M11" s="4"/>
+      <c r="N11" s="1">
         <v>0</v>
       </c>
       <c r="O11" s="4">
@@ -1312,19 +1377,25 @@
         <v>0</v>
       </c>
       <c r="R11" s="4">
+        <v>0</v>
+      </c>
+      <c r="S11" s="4">
+        <v>0</v>
+      </c>
+      <c r="T11" s="4">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="S11" s="4"/>
-      <c r="T11" s="4"/>
       <c r="U11" s="4"/>
       <c r="V11" s="4"/>
       <c r="W11" s="4"/>
       <c r="X11" s="4"/>
       <c r="Y11" s="4"/>
       <c r="Z11" s="4"/>
-    </row>
-    <row r="12" spans="1:28" s="11" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="AA11" s="4"/>
+      <c r="AB11" s="4"/>
+    </row>
+    <row r="12" spans="1:30" s="11" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B12" s="11" t="s">
         <v>18</v>
       </c>
@@ -1358,72 +1429,80 @@
       </c>
       <c r="J12" s="12">
         <f>SUM(J8:J11)</f>
-        <v>465.73699999999997</v>
-      </c>
-      <c r="K12" s="12"/>
+        <v>641.94299999999998</v>
+      </c>
+      <c r="K12" s="12">
+        <f t="shared" ref="K12:L12" si="5">SUM(K8:K11)</f>
+        <v>641.94299999999998</v>
+      </c>
       <c r="L12" s="12">
-        <f t="shared" ref="L12:P12" si="5">SUM(L8:L11)</f>
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="M12" s="12"/>
+      <c r="N12" s="12">
+        <f t="shared" ref="N12:R12" si="6">SUM(N8:N11)</f>
         <v>1053.4479999999999</v>
       </c>
-      <c r="M12" s="12">
-        <f t="shared" si="5"/>
+      <c r="O12" s="12">
+        <f t="shared" si="6"/>
         <v>1076.626</v>
       </c>
-      <c r="N12" s="12">
-        <f t="shared" si="5"/>
+      <c r="P12" s="12">
+        <f t="shared" si="6"/>
         <v>1913.8049999999998</v>
       </c>
-      <c r="O12" s="12">
-        <f t="shared" si="5"/>
+      <c r="Q12" s="12">
+        <f t="shared" si="6"/>
         <v>1613.5309999999999</v>
       </c>
-      <c r="P12" s="12">
-        <f t="shared" si="5"/>
+      <c r="R12" s="12">
+        <f t="shared" si="6"/>
         <v>1658.5230000000001</v>
       </c>
-      <c r="Q12" s="12">
-        <f>SUM(Q8:Q11)</f>
+      <c r="S12" s="12">
+        <f>SUM(S8:S11)</f>
         <v>1673.941</v>
       </c>
-      <c r="R12" s="12">
-        <f>SUM(R8:R11)</f>
-        <v>1812.9079999999999</v>
-      </c>
-      <c r="S12" s="12"/>
-      <c r="T12" s="12"/>
+      <c r="T12" s="12">
+        <f>SUM(T8:T11)</f>
+        <v>1989.1140000000003</v>
+      </c>
       <c r="U12" s="12"/>
       <c r="V12" s="12"/>
       <c r="W12" s="12"/>
       <c r="X12" s="12"/>
       <c r="Y12" s="12"/>
       <c r="Z12" s="12"/>
-    </row>
-    <row r="13" spans="1:28" s="11" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="AA12" s="12"/>
+      <c r="AB12" s="12"/>
+    </row>
+    <row r="13" spans="1:30" s="11" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B13" s="11" t="s">
         <v>19</v>
       </c>
       <c r="C13" s="12">
-        <f t="shared" ref="C13:H13" si="6">C7-C12</f>
+        <f t="shared" ref="C13:H13" si="7">C7-C12</f>
         <v>4.1150000000000659</v>
       </c>
       <c r="D13" s="12">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>10.073999999999955</v>
       </c>
       <c r="E13" s="12">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>39.982999999999947</v>
       </c>
       <c r="F13" s="12">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>65.793999999999755</v>
       </c>
       <c r="G13" s="12">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>80.880999999999972</v>
       </c>
       <c r="H13" s="12">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>105.33899999999994</v>
       </c>
       <c r="I13" s="12">
@@ -1432,47 +1511,55 @@
       </c>
       <c r="J13" s="12">
         <f>J7-J12</f>
-        <v>177.49997999999982</v>
-      </c>
-      <c r="K13" s="12"/>
+        <v>11.043000000000006</v>
+      </c>
+      <c r="K13" s="12">
+        <f t="shared" ref="K13:L13" si="8">K7-K12</f>
+        <v>47.106059999999957</v>
+      </c>
       <c r="L13" s="12">
-        <f>L7-L12</f>
+        <f t="shared" si="8"/>
+        <v>714.44360000000006</v>
+      </c>
+      <c r="M13" s="12"/>
+      <c r="N13" s="12">
+        <f>N7-N12</f>
         <v>-623.43999999999983</v>
       </c>
-      <c r="M13" s="12">
-        <f>M7-M12</f>
+      <c r="O13" s="12">
+        <f>O7-O12</f>
         <v>-576.44399999999996</v>
       </c>
-      <c r="N13" s="12">
-        <f t="shared" ref="N13:R13" si="7">N7-N12</f>
+      <c r="P13" s="12">
+        <f t="shared" ref="P13:T13" si="9">P7-P12</f>
         <v>-1173.6789999999999</v>
       </c>
-      <c r="O13" s="12">
-        <f t="shared" si="7"/>
+      <c r="Q13" s="12">
+        <f t="shared" si="9"/>
         <v>-411.04600000000005</v>
       </c>
-      <c r="P13" s="12">
-        <f t="shared" si="7"/>
+      <c r="R13" s="12">
+        <f t="shared" si="9"/>
         <v>-161.20100000000002</v>
       </c>
-      <c r="Q13" s="12">
-        <f t="shared" si="7"/>
+      <c r="S13" s="12">
+        <f t="shared" si="9"/>
         <v>119.96600000000012</v>
       </c>
-      <c r="R13" s="12">
-        <f t="shared" si="7"/>
-        <v>476.85997999999972</v>
-      </c>
-      <c r="S13" s="12"/>
-      <c r="T13" s="12"/>
+      <c r="T13" s="12">
+        <f t="shared" si="9"/>
+        <v>310.40299999999957</v>
+      </c>
       <c r="U13" s="12"/>
       <c r="V13" s="12"/>
       <c r="W13" s="12"/>
       <c r="X13" s="12"/>
       <c r="Y13" s="12"/>
       <c r="Z13" s="12"/>
-    </row>
-    <row r="14" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AA13" s="12"/>
+      <c r="AB13" s="12"/>
+    </row>
+    <row r="14" spans="1:30" x14ac:dyDescent="0.2">
       <c r="B14" s="1" t="s">
         <v>39</v>
       </c>
@@ -1486,7 +1573,7 @@
         <v>36.863999999999997</v>
       </c>
       <c r="F14" s="4">
-        <f>Q14-SUM(C14:E14)</f>
+        <f>S14-SUM(C14:E14)</f>
         <v>44.545000000000016</v>
       </c>
       <c r="G14" s="1">
@@ -1499,83 +1586,91 @@
         <v>52.12</v>
       </c>
       <c r="J14" s="4">
-        <v>60</v>
-      </c>
-      <c r="K14" s="4"/>
-      <c r="L14" s="1">
+        <v>54.726999999999997</v>
+      </c>
+      <c r="K14" s="4">
+        <v>50</v>
+      </c>
+      <c r="L14" s="4"/>
+      <c r="M14" s="4"/>
+      <c r="N14" s="1">
         <v>10.5</v>
       </c>
-      <c r="M14" s="4">
+      <c r="O14" s="4">
         <v>15.09</v>
       </c>
-      <c r="N14" s="4">
+      <c r="P14" s="4">
         <v>4.68</v>
       </c>
-      <c r="O14" s="4">
+      <c r="Q14" s="4">
         <v>1.607</v>
       </c>
-      <c r="P14" s="4">
+      <c r="R14" s="4">
         <v>20.309000000000001</v>
       </c>
-      <c r="Q14" s="4">
+      <c r="S14" s="4">
         <v>132.572</v>
       </c>
-      <c r="R14" s="4">
+      <c r="T14" s="4">
         <f t="shared" si="1"/>
-        <v>202.065</v>
-      </c>
-      <c r="S14" s="4"/>
-      <c r="T14" s="4"/>
+        <v>196.792</v>
+      </c>
       <c r="U14" s="4"/>
       <c r="V14" s="4"/>
       <c r="W14" s="4"/>
       <c r="X14" s="4"/>
       <c r="Y14" s="4"/>
       <c r="Z14" s="4"/>
-    </row>
-    <row r="15" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AA14" s="4"/>
+      <c r="AB14" s="4"/>
+    </row>
+    <row r="15" spans="1:30" x14ac:dyDescent="0.2">
       <c r="B15" s="1" t="s">
         <v>40</v>
       </c>
       <c r="F15" s="4">
-        <f>Q15-SUM(C15:E15)</f>
+        <f>S15-SUM(C15:E15)</f>
         <v>-3.47</v>
       </c>
       <c r="I15" s="4"/>
-      <c r="J15" s="4"/>
+      <c r="J15" s="4">
+        <v>0</v>
+      </c>
       <c r="K15" s="4"/>
-      <c r="L15" s="1">
+      <c r="L15" s="4"/>
+      <c r="M15" s="4"/>
+      <c r="N15" s="1">
         <v>-3.44</v>
       </c>
-      <c r="M15" s="4">
+      <c r="O15" s="4">
         <v>-3.0609999999999999</v>
       </c>
-      <c r="N15" s="4">
+      <c r="P15" s="4">
         <v>-14.138999999999999</v>
       </c>
-      <c r="O15" s="4">
+      <c r="Q15" s="4">
         <v>-3.64</v>
       </c>
-      <c r="P15" s="4">
+      <c r="R15" s="4">
         <v>-4.0579999999999998</v>
       </c>
-      <c r="Q15" s="4">
+      <c r="S15" s="4">
         <v>-3.47</v>
       </c>
-      <c r="R15" s="4">
+      <c r="T15" s="4">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="S15" s="4"/>
-      <c r="T15" s="4"/>
       <c r="U15" s="4"/>
       <c r="V15" s="4"/>
       <c r="W15" s="4"/>
       <c r="X15" s="4"/>
       <c r="Y15" s="4"/>
       <c r="Z15" s="4"/>
-    </row>
-    <row r="16" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AA15" s="4"/>
+      <c r="AB15" s="4"/>
+    </row>
+    <row r="16" spans="1:30" x14ac:dyDescent="0.2">
       <c r="B16" s="1" t="s">
         <v>17</v>
       </c>
@@ -1589,7 +1684,7 @@
         <v>3.1219999999999999</v>
       </c>
       <c r="F16" s="4">
-        <f>Q16-SUM(C16:E16)</f>
+        <f>S16-SUM(C16:E16)</f>
         <v>-0.62199999999999989</v>
       </c>
       <c r="G16" s="1">
@@ -1602,117 +1697,127 @@
         <v>-8.11</v>
       </c>
       <c r="J16" s="4">
-        <v>0</v>
+        <v>14.768000000000001</v>
       </c>
       <c r="K16" s="4"/>
-      <c r="L16" s="1">
+      <c r="L16" s="4"/>
+      <c r="M16" s="4"/>
+      <c r="N16" s="1">
         <f>-2.638+48.093</f>
         <v>45.455000000000005</v>
       </c>
-      <c r="M16" s="4">
+      <c r="O16" s="4">
         <v>-2.8559999999999999</v>
       </c>
-      <c r="N16" s="4">
+      <c r="P16" s="4">
         <f>3.3+0.811</f>
         <v>4.1109999999999998</v>
       </c>
-      <c r="O16" s="4">
+      <c r="Q16" s="4">
         <v>-75.415000000000006</v>
       </c>
-      <c r="P16" s="4">
+      <c r="R16" s="4">
         <v>-216.077</v>
       </c>
-      <c r="Q16" s="4">
+      <c r="S16" s="4">
         <v>-11.977</v>
       </c>
-      <c r="R16" s="4">
+      <c r="T16" s="4">
         <f t="shared" si="1"/>
-        <v>-32.79</v>
-      </c>
-      <c r="S16" s="4"/>
-      <c r="T16" s="4"/>
+        <v>-18.021999999999998</v>
+      </c>
       <c r="U16" s="4"/>
       <c r="V16" s="4"/>
       <c r="W16" s="4"/>
       <c r="X16" s="4"/>
       <c r="Y16" s="4"/>
       <c r="Z16" s="4"/>
-    </row>
-    <row r="17" spans="2:158" s="11" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="AA16" s="4"/>
+      <c r="AB16" s="4"/>
+    </row>
+    <row r="17" spans="2:160" s="11" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B17" s="11" t="s">
         <v>20</v>
       </c>
       <c r="C17" s="12">
-        <f t="shared" ref="C17:J17" si="8">SUM(C13:C16)</f>
+        <f t="shared" ref="C17:L17" si="10">SUM(C13:C16)</f>
         <v>20.832000000000068</v>
       </c>
       <c r="D17" s="12">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>30.042999999999957</v>
       </c>
       <c r="E17" s="12">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>79.968999999999951</v>
       </c>
       <c r="F17" s="12">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>106.24699999999977</v>
       </c>
       <c r="G17" s="12">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>110.72599999999997</v>
       </c>
       <c r="H17" s="12">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>140.75899999999996</v>
       </c>
       <c r="I17" s="12">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>157.14999999999998</v>
       </c>
       <c r="J17" s="12">
-        <f t="shared" si="8"/>
-        <v>237.49997999999982</v>
-      </c>
-      <c r="K17" s="12"/>
+        <f t="shared" si="10"/>
+        <v>80.538000000000011</v>
+      </c>
+      <c r="K17" s="12">
+        <f t="shared" si="10"/>
+        <v>97.106059999999957</v>
+      </c>
       <c r="L17" s="12">
-        <f t="shared" ref="L17:R17" si="9">SUM(L13:L16)</f>
+        <f t="shared" si="10"/>
+        <v>714.44360000000006</v>
+      </c>
+      <c r="M17" s="12"/>
+      <c r="N17" s="12">
+        <f t="shared" ref="N17:T17" si="11">SUM(N13:N16)</f>
         <v>-570.92499999999984</v>
       </c>
-      <c r="M17" s="12">
-        <f t="shared" si="9"/>
+      <c r="O17" s="12">
+        <f t="shared" si="11"/>
         <v>-567.27099999999996</v>
       </c>
-      <c r="N17" s="12">
-        <f t="shared" si="9"/>
+      <c r="P17" s="12">
+        <f t="shared" si="11"/>
         <v>-1179.0269999999996</v>
       </c>
-      <c r="O17" s="12">
-        <f t="shared" si="9"/>
+      <c r="Q17" s="12">
+        <f t="shared" si="11"/>
         <v>-488.49400000000003</v>
       </c>
-      <c r="P17" s="12">
-        <f t="shared" si="9"/>
+      <c r="R17" s="12">
+        <f t="shared" si="11"/>
         <v>-361.02700000000004</v>
       </c>
-      <c r="Q17" s="12">
-        <f t="shared" si="9"/>
+      <c r="S17" s="12">
+        <f t="shared" si="11"/>
         <v>237.09100000000012</v>
       </c>
-      <c r="R17" s="12">
-        <f t="shared" si="9"/>
-        <v>646.13497999999981</v>
-      </c>
-      <c r="S17" s="12"/>
-      <c r="T17" s="12"/>
+      <c r="T17" s="12">
+        <f t="shared" si="11"/>
+        <v>489.1729999999996</v>
+      </c>
       <c r="U17" s="12"/>
       <c r="V17" s="12"/>
       <c r="W17" s="12"/>
       <c r="X17" s="12"/>
       <c r="Y17" s="12"/>
       <c r="Z17" s="12"/>
-    </row>
-    <row r="18" spans="2:158" x14ac:dyDescent="0.2">
+      <c r="AA17" s="12"/>
+      <c r="AB17" s="12"/>
+    </row>
+    <row r="18" spans="2:160" x14ac:dyDescent="0.2">
       <c r="B18" s="1" t="s">
         <v>21</v>
       </c>
@@ -1726,7 +1831,7 @@
         <v>6.53</v>
       </c>
       <c r="F18" s="4">
-        <f>Q18-SUM(C18:E18)</f>
+        <f>S18-SUM(C18:E18)</f>
         <v>9.3340000000000014</v>
       </c>
       <c r="G18" s="1">
@@ -1739,42 +1844,43 @@
         <v>7.8090000000000002</v>
       </c>
       <c r="J18" s="4">
-        <f>J17*I26</f>
-        <v>11.801701201527196</v>
+        <v>3.6019999999999999</v>
       </c>
       <c r="K18" s="4"/>
-      <c r="L18" s="1">
+      <c r="L18" s="4"/>
+      <c r="M18" s="4"/>
+      <c r="N18" s="1">
         <v>9.1020000000000003</v>
       </c>
-      <c r="M18" s="4">
+      <c r="O18" s="4">
         <v>12.375</v>
       </c>
-      <c r="N18" s="4">
+      <c r="P18" s="4">
         <v>-12.635999999999999</v>
       </c>
-      <c r="O18" s="4">
+      <c r="Q18" s="4">
         <v>31.885000000000002</v>
       </c>
-      <c r="P18" s="4">
+      <c r="R18" s="4">
         <v>10.067</v>
       </c>
-      <c r="Q18" s="4">
+      <c r="S18" s="4">
         <v>19.716000000000001</v>
       </c>
-      <c r="R18" s="4">
+      <c r="T18" s="4">
         <f t="shared" si="1"/>
-        <v>29.4547012015272</v>
-      </c>
-      <c r="S18" s="4"/>
-      <c r="T18" s="4"/>
+        <v>21.255000000000003</v>
+      </c>
       <c r="U18" s="4"/>
       <c r="V18" s="4"/>
       <c r="W18" s="4"/>
       <c r="X18" s="4"/>
       <c r="Y18" s="4"/>
       <c r="Z18" s="4"/>
-    </row>
-    <row r="19" spans="2:158" x14ac:dyDescent="0.2">
+      <c r="AA18" s="4"/>
+      <c r="AB18" s="4"/>
+    </row>
+    <row r="19" spans="2:160" x14ac:dyDescent="0.2">
       <c r="B19" s="1" t="s">
         <v>22</v>
       </c>
@@ -1788,7 +1894,7 @@
         <v>1.9339999999999999</v>
       </c>
       <c r="F19" s="4">
-        <f>Q19-SUM(C19:E19)</f>
+        <f>S19-SUM(C19:E19)</f>
         <v>3.5219999999999994</v>
       </c>
       <c r="G19" s="1">
@@ -1801,67 +1907,68 @@
         <v>5.8159999999999998</v>
       </c>
       <c r="J19" s="4">
-        <f>AVERAGE(F19:I19)</f>
-        <v>2.8307500000000001</v>
+        <v>-2.073</v>
       </c>
       <c r="K19" s="4"/>
-      <c r="L19" s="1">
+      <c r="L19" s="4"/>
+      <c r="M19" s="4"/>
+      <c r="N19" s="1">
         <v>18.097999999999999</v>
       </c>
-      <c r="M19" s="4">
+      <c r="O19" s="4">
         <v>8.4809999999999999</v>
       </c>
-      <c r="N19" s="4">
+      <c r="P19" s="4">
         <v>0</v>
       </c>
-      <c r="O19" s="4">
+      <c r="Q19" s="4">
         <v>0</v>
       </c>
-      <c r="P19" s="4">
+      <c r="R19" s="4">
         <v>2.6110000000000002</v>
       </c>
-      <c r="Q19" s="4">
+      <c r="S19" s="4">
         <v>7.55</v>
       </c>
-      <c r="R19" s="4">
+      <c r="T19" s="4">
         <f t="shared" si="1"/>
-        <v>10.63175</v>
-      </c>
-      <c r="S19" s="4"/>
-      <c r="T19" s="4"/>
+        <v>5.7279999999999998</v>
+      </c>
       <c r="U19" s="4"/>
       <c r="V19" s="4"/>
       <c r="W19" s="4"/>
       <c r="X19" s="4"/>
       <c r="Y19" s="4"/>
       <c r="Z19" s="4"/>
-    </row>
-    <row r="20" spans="2:158" s="15" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="AA19" s="4"/>
+      <c r="AB19" s="4"/>
+    </row>
+    <row r="20" spans="2:160" s="15" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B20" s="15" t="s">
         <v>23</v>
       </c>
       <c r="C20" s="16">
-        <f t="shared" ref="C20:H20" si="10">C17-C18-C19</f>
+        <f t="shared" ref="C20:H20" si="12">C17-C18-C19</f>
         <v>16.802000000000067</v>
       </c>
       <c r="D20" s="16">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>28.126999999999956</v>
       </c>
       <c r="E20" s="16">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>71.504999999999953</v>
       </c>
       <c r="F20" s="16">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>93.390999999999764</v>
       </c>
       <c r="G20" s="16">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>105.52999999999997</v>
       </c>
       <c r="H20" s="16">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>134.12599999999998</v>
       </c>
       <c r="I20" s="16">
@@ -1870,624 +1977,632 @@
       </c>
       <c r="J20" s="16">
         <f>J17-J18-J19</f>
-        <v>222.86752879847262</v>
-      </c>
-      <c r="K20" s="16"/>
+        <v>79.009</v>
+      </c>
+      <c r="K20" s="16">
+        <f t="shared" ref="K20:L20" si="13">K17-K18-K19</f>
+        <v>97.106059999999957</v>
+      </c>
       <c r="L20" s="16">
-        <f>L17-L18-L19</f>
-        <v>-598.12499999999977</v>
-      </c>
-      <c r="M20" s="16">
-        <f>M17-M18-M19</f>
-        <v>-588.12699999999995</v>
-      </c>
+        <f t="shared" si="13"/>
+        <v>714.44360000000006</v>
+      </c>
+      <c r="M20" s="16"/>
       <c r="N20" s="16">
         <f>N17-N18-N19</f>
-        <v>-1166.3909999999996</v>
+        <v>-598.12499999999977</v>
       </c>
       <c r="O20" s="16">
         <f>O17-O18-O19</f>
+        <v>-588.12699999999995</v>
+      </c>
+      <c r="P20" s="16">
+        <f>P17-P18-P19</f>
+        <v>-1166.3909999999996</v>
+      </c>
+      <c r="Q20" s="16">
+        <f>Q17-Q18-Q19</f>
         <v>-520.37900000000002</v>
       </c>
-      <c r="P20" s="16">
-        <f t="shared" ref="P20:R20" si="11">P17-P18-P19</f>
+      <c r="R20" s="16">
+        <f t="shared" ref="R20:T20" si="14">R17-R18-R19</f>
         <v>-373.70500000000004</v>
       </c>
-      <c r="Q20" s="16">
-        <f t="shared" si="11"/>
+      <c r="S20" s="16">
+        <f t="shared" si="14"/>
         <v>209.8250000000001</v>
       </c>
-      <c r="R20" s="16">
-        <f t="shared" si="11"/>
-        <v>606.0485287984726</v>
-      </c>
-      <c r="S20" s="16">
-        <f>S5*S27</f>
-        <v>877.88164003124984</v>
-      </c>
       <c r="T20" s="16">
-        <f t="shared" ref="T20:AB20" si="12">T5*T27</f>
-        <v>2282.4922640812497</v>
+        <f t="shared" si="14"/>
+        <v>462.1899999999996</v>
       </c>
       <c r="U20" s="16">
-        <f t="shared" si="12"/>
-        <v>2921.5900980239994</v>
+        <f>U5*U27</f>
+        <v>1112.8196434499998</v>
       </c>
       <c r="V20" s="16">
-        <f t="shared" si="12"/>
-        <v>3681.2035235102394</v>
+        <f t="shared" ref="V20:AD20" si="15">V5*V27</f>
+        <v>2262.7332750149994</v>
       </c>
       <c r="W20" s="16">
-        <f t="shared" si="12"/>
-        <v>4564.6923691526972</v>
+        <f t="shared" si="15"/>
+        <v>2896.2985920191995</v>
       </c>
       <c r="X20" s="16">
-        <f t="shared" si="12"/>
-        <v>5568.9246903662906</v>
+        <f t="shared" si="15"/>
+        <v>3649.3362259441915</v>
       </c>
       <c r="Y20" s="16">
-        <f t="shared" si="12"/>
-        <v>6682.7096284395484</v>
+        <f t="shared" si="15"/>
+        <v>4525.1769201707975</v>
       </c>
       <c r="Z20" s="16">
-        <f t="shared" si="12"/>
-        <v>7685.1160727054803</v>
+        <f t="shared" si="15"/>
+        <v>5520.7158426083734</v>
       </c>
       <c r="AA20" s="16">
-        <f t="shared" si="12"/>
-        <v>8453.627679976029</v>
+        <f t="shared" si="15"/>
+        <v>6624.8590111300482</v>
       </c>
       <c r="AB20" s="16">
-        <f t="shared" si="12"/>
-        <v>8876.3090639748298</v>
+        <f t="shared" si="15"/>
+        <v>7618.5878627995553</v>
       </c>
       <c r="AC20" s="16">
-        <f>AB20*(1+Main!$L$10)</f>
-        <v>8876.3090639748298</v>
+        <f t="shared" si="15"/>
+        <v>8380.4466490795112</v>
       </c>
       <c r="AD20" s="16">
-        <f>AC20*(1+Main!$L$10)</f>
-        <v>8876.3090639748298</v>
+        <f t="shared" si="15"/>
+        <v>8799.4689815334859</v>
       </c>
       <c r="AE20" s="16">
         <f>AD20*(1+Main!$L$10)</f>
-        <v>8876.3090639748298</v>
+        <v>8799.4689815334859</v>
       </c>
       <c r="AF20" s="16">
         <f>AE20*(1+Main!$L$10)</f>
-        <v>8876.3090639748298</v>
+        <v>8799.4689815334859</v>
       </c>
       <c r="AG20" s="16">
         <f>AF20*(1+Main!$L$10)</f>
-        <v>8876.3090639748298</v>
+        <v>8799.4689815334859</v>
       </c>
       <c r="AH20" s="16">
         <f>AG20*(1+Main!$L$10)</f>
-        <v>8876.3090639748298</v>
+        <v>8799.4689815334859</v>
       </c>
       <c r="AI20" s="16">
         <f>AH20*(1+Main!$L$10)</f>
-        <v>8876.3090639748298</v>
+        <v>8799.4689815334859</v>
       </c>
       <c r="AJ20" s="16">
         <f>AI20*(1+Main!$L$10)</f>
-        <v>8876.3090639748298</v>
+        <v>8799.4689815334859</v>
       </c>
       <c r="AK20" s="16">
         <f>AJ20*(1+Main!$L$10)</f>
-        <v>8876.3090639748298</v>
+        <v>8799.4689815334859</v>
       </c>
       <c r="AL20" s="16">
         <f>AK20*(1+Main!$L$10)</f>
-        <v>8876.3090639748298</v>
+        <v>8799.4689815334859</v>
       </c>
       <c r="AM20" s="16">
         <f>AL20*(1+Main!$L$10)</f>
-        <v>8876.3090639748298</v>
+        <v>8799.4689815334859</v>
       </c>
       <c r="AN20" s="16">
         <f>AM20*(1+Main!$L$10)</f>
-        <v>8876.3090639748298</v>
+        <v>8799.4689815334859</v>
       </c>
       <c r="AO20" s="16">
         <f>AN20*(1+Main!$L$10)</f>
-        <v>8876.3090639748298</v>
+        <v>8799.4689815334859</v>
       </c>
       <c r="AP20" s="16">
         <f>AO20*(1+Main!$L$10)</f>
-        <v>8876.3090639748298</v>
+        <v>8799.4689815334859</v>
       </c>
       <c r="AQ20" s="16">
         <f>AP20*(1+Main!$L$10)</f>
-        <v>8876.3090639748298</v>
+        <v>8799.4689815334859</v>
       </c>
       <c r="AR20" s="16">
         <f>AQ20*(1+Main!$L$10)</f>
-        <v>8876.3090639748298</v>
+        <v>8799.4689815334859</v>
       </c>
       <c r="AS20" s="16">
         <f>AR20*(1+Main!$L$10)</f>
-        <v>8876.3090639748298</v>
+        <v>8799.4689815334859</v>
       </c>
       <c r="AT20" s="16">
         <f>AS20*(1+Main!$L$10)</f>
-        <v>8876.3090639748298</v>
+        <v>8799.4689815334859</v>
       </c>
       <c r="AU20" s="16">
         <f>AT20*(1+Main!$L$10)</f>
-        <v>8876.3090639748298</v>
+        <v>8799.4689815334859</v>
       </c>
       <c r="AV20" s="16">
         <f>AU20*(1+Main!$L$10)</f>
-        <v>8876.3090639748298</v>
+        <v>8799.4689815334859</v>
       </c>
       <c r="AW20" s="16">
         <f>AV20*(1+Main!$L$10)</f>
-        <v>8876.3090639748298</v>
+        <v>8799.4689815334859</v>
       </c>
       <c r="AX20" s="16">
         <f>AW20*(1+Main!$L$10)</f>
-        <v>8876.3090639748298</v>
+        <v>8799.4689815334859</v>
       </c>
       <c r="AY20" s="16">
         <f>AX20*(1+Main!$L$10)</f>
-        <v>8876.3090639748298</v>
+        <v>8799.4689815334859</v>
       </c>
       <c r="AZ20" s="16">
         <f>AY20*(1+Main!$L$10)</f>
-        <v>8876.3090639748298</v>
+        <v>8799.4689815334859</v>
       </c>
       <c r="BA20" s="16">
         <f>AZ20*(1+Main!$L$10)</f>
-        <v>8876.3090639748298</v>
+        <v>8799.4689815334859</v>
       </c>
       <c r="BB20" s="16">
         <f>BA20*(1+Main!$L$10)</f>
-        <v>8876.3090639748298</v>
+        <v>8799.4689815334859</v>
       </c>
       <c r="BC20" s="16">
         <f>BB20*(1+Main!$L$10)</f>
-        <v>8876.3090639748298</v>
+        <v>8799.4689815334859</v>
       </c>
       <c r="BD20" s="16">
         <f>BC20*(1+Main!$L$10)</f>
-        <v>8876.3090639748298</v>
+        <v>8799.4689815334859</v>
       </c>
       <c r="BE20" s="16">
         <f>BD20*(1+Main!$L$10)</f>
-        <v>8876.3090639748298</v>
+        <v>8799.4689815334859</v>
       </c>
       <c r="BF20" s="16">
         <f>BE20*(1+Main!$L$10)</f>
-        <v>8876.3090639748298</v>
+        <v>8799.4689815334859</v>
       </c>
       <c r="BG20" s="16">
         <f>BF20*(1+Main!$L$10)</f>
-        <v>8876.3090639748298</v>
+        <v>8799.4689815334859</v>
       </c>
       <c r="BH20" s="16">
         <f>BG20*(1+Main!$L$10)</f>
-        <v>8876.3090639748298</v>
+        <v>8799.4689815334859</v>
       </c>
       <c r="BI20" s="16">
         <f>BH20*(1+Main!$L$10)</f>
-        <v>8876.3090639748298</v>
+        <v>8799.4689815334859</v>
       </c>
       <c r="BJ20" s="16">
         <f>BI20*(1+Main!$L$10)</f>
-        <v>8876.3090639748298</v>
+        <v>8799.4689815334859</v>
       </c>
       <c r="BK20" s="16">
         <f>BJ20*(1+Main!$L$10)</f>
-        <v>8876.3090639748298</v>
+        <v>8799.4689815334859</v>
       </c>
       <c r="BL20" s="16">
         <f>BK20*(1+Main!$L$10)</f>
-        <v>8876.3090639748298</v>
+        <v>8799.4689815334859</v>
       </c>
       <c r="BM20" s="16">
         <f>BL20*(1+Main!$L$10)</f>
-        <v>8876.3090639748298</v>
+        <v>8799.4689815334859</v>
       </c>
       <c r="BN20" s="16">
         <f>BM20*(1+Main!$L$10)</f>
-        <v>8876.3090639748298</v>
+        <v>8799.4689815334859</v>
       </c>
       <c r="BO20" s="16">
         <f>BN20*(1+Main!$L$10)</f>
-        <v>8876.3090639748298</v>
+        <v>8799.4689815334859</v>
       </c>
       <c r="BP20" s="16">
         <f>BO20*(1+Main!$L$10)</f>
-        <v>8876.3090639748298</v>
+        <v>8799.4689815334859</v>
       </c>
       <c r="BQ20" s="16">
         <f>BP20*(1+Main!$L$10)</f>
-        <v>8876.3090639748298</v>
+        <v>8799.4689815334859</v>
       </c>
       <c r="BR20" s="16">
         <f>BQ20*(1+Main!$L$10)</f>
-        <v>8876.3090639748298</v>
+        <v>8799.4689815334859</v>
       </c>
       <c r="BS20" s="16">
         <f>BR20*(1+Main!$L$10)</f>
-        <v>8876.3090639748298</v>
+        <v>8799.4689815334859</v>
       </c>
       <c r="BT20" s="16">
         <f>BS20*(1+Main!$L$10)</f>
-        <v>8876.3090639748298</v>
+        <v>8799.4689815334859</v>
       </c>
       <c r="BU20" s="16">
         <f>BT20*(1+Main!$L$10)</f>
-        <v>8876.3090639748298</v>
+        <v>8799.4689815334859</v>
       </c>
       <c r="BV20" s="16">
         <f>BU20*(1+Main!$L$10)</f>
-        <v>8876.3090639748298</v>
+        <v>8799.4689815334859</v>
       </c>
       <c r="BW20" s="16">
         <f>BV20*(1+Main!$L$10)</f>
-        <v>8876.3090639748298</v>
+        <v>8799.4689815334859</v>
       </c>
       <c r="BX20" s="16">
         <f>BW20*(1+Main!$L$10)</f>
-        <v>8876.3090639748298</v>
+        <v>8799.4689815334859</v>
       </c>
       <c r="BY20" s="16">
         <f>BX20*(1+Main!$L$10)</f>
-        <v>8876.3090639748298</v>
+        <v>8799.4689815334859</v>
       </c>
       <c r="BZ20" s="16">
         <f>BY20*(1+Main!$L$10)</f>
-        <v>8876.3090639748298</v>
+        <v>8799.4689815334859</v>
       </c>
       <c r="CA20" s="16">
         <f>BZ20*(1+Main!$L$10)</f>
-        <v>8876.3090639748298</v>
+        <v>8799.4689815334859</v>
       </c>
       <c r="CB20" s="16">
         <f>CA20*(1+Main!$L$10)</f>
-        <v>8876.3090639748298</v>
+        <v>8799.4689815334859</v>
       </c>
       <c r="CC20" s="16">
         <f>CB20*(1+Main!$L$10)</f>
-        <v>8876.3090639748298</v>
+        <v>8799.4689815334859</v>
       </c>
       <c r="CD20" s="16">
         <f>CC20*(1+Main!$L$10)</f>
-        <v>8876.3090639748298</v>
+        <v>8799.4689815334859</v>
       </c>
       <c r="CE20" s="16">
         <f>CD20*(1+Main!$L$10)</f>
-        <v>8876.3090639748298</v>
+        <v>8799.4689815334859</v>
       </c>
       <c r="CF20" s="16">
         <f>CE20*(1+Main!$L$10)</f>
-        <v>8876.3090639748298</v>
+        <v>8799.4689815334859</v>
       </c>
       <c r="CG20" s="16">
         <f>CF20*(1+Main!$L$10)</f>
-        <v>8876.3090639748298</v>
+        <v>8799.4689815334859</v>
       </c>
       <c r="CH20" s="16">
         <f>CG20*(1+Main!$L$10)</f>
-        <v>8876.3090639748298</v>
+        <v>8799.4689815334859</v>
       </c>
       <c r="CI20" s="16">
         <f>CH20*(1+Main!$L$10)</f>
-        <v>8876.3090639748298</v>
+        <v>8799.4689815334859</v>
       </c>
       <c r="CJ20" s="16">
         <f>CI20*(1+Main!$L$10)</f>
-        <v>8876.3090639748298</v>
+        <v>8799.4689815334859</v>
       </c>
       <c r="CK20" s="16">
         <f>CJ20*(1+Main!$L$10)</f>
-        <v>8876.3090639748298</v>
+        <v>8799.4689815334859</v>
       </c>
       <c r="CL20" s="16">
         <f>CK20*(1+Main!$L$10)</f>
-        <v>8876.3090639748298</v>
+        <v>8799.4689815334859</v>
       </c>
       <c r="CM20" s="16">
         <f>CL20*(1+Main!$L$10)</f>
-        <v>8876.3090639748298</v>
+        <v>8799.4689815334859</v>
       </c>
       <c r="CN20" s="16">
         <f>CM20*(1+Main!$L$10)</f>
-        <v>8876.3090639748298</v>
+        <v>8799.4689815334859</v>
       </c>
       <c r="CO20" s="16">
         <f>CN20*(1+Main!$L$10)</f>
-        <v>8876.3090639748298</v>
+        <v>8799.4689815334859</v>
       </c>
       <c r="CP20" s="16">
         <f>CO20*(1+Main!$L$10)</f>
-        <v>8876.3090639748298</v>
+        <v>8799.4689815334859</v>
       </c>
       <c r="CQ20" s="16">
         <f>CP20*(1+Main!$L$10)</f>
-        <v>8876.3090639748298</v>
+        <v>8799.4689815334859</v>
       </c>
       <c r="CR20" s="16">
         <f>CQ20*(1+Main!$L$10)</f>
-        <v>8876.3090639748298</v>
+        <v>8799.4689815334859</v>
       </c>
       <c r="CS20" s="16">
         <f>CR20*(1+Main!$L$10)</f>
-        <v>8876.3090639748298</v>
+        <v>8799.4689815334859</v>
       </c>
       <c r="CT20" s="16">
         <f>CS20*(1+Main!$L$10)</f>
-        <v>8876.3090639748298</v>
+        <v>8799.4689815334859</v>
       </c>
       <c r="CU20" s="16">
         <f>CT20*(1+Main!$L$10)</f>
-        <v>8876.3090639748298</v>
+        <v>8799.4689815334859</v>
       </c>
       <c r="CV20" s="16">
         <f>CU20*(1+Main!$L$10)</f>
-        <v>8876.3090639748298</v>
+        <v>8799.4689815334859</v>
       </c>
       <c r="CW20" s="16">
         <f>CV20*(1+Main!$L$10)</f>
-        <v>8876.3090639748298</v>
+        <v>8799.4689815334859</v>
       </c>
       <c r="CX20" s="16">
         <f>CW20*(1+Main!$L$10)</f>
-        <v>8876.3090639748298</v>
+        <v>8799.4689815334859</v>
       </c>
       <c r="CY20" s="16">
         <f>CX20*(1+Main!$L$10)</f>
-        <v>8876.3090639748298</v>
+        <v>8799.4689815334859</v>
       </c>
       <c r="CZ20" s="16">
         <f>CY20*(1+Main!$L$10)</f>
-        <v>8876.3090639748298</v>
+        <v>8799.4689815334859</v>
       </c>
       <c r="DA20" s="16">
         <f>CZ20*(1+Main!$L$10)</f>
-        <v>8876.3090639748298</v>
+        <v>8799.4689815334859</v>
       </c>
       <c r="DB20" s="16">
         <f>DA20*(1+Main!$L$10)</f>
-        <v>8876.3090639748298</v>
+        <v>8799.4689815334859</v>
       </c>
       <c r="DC20" s="16">
         <f>DB20*(1+Main!$L$10)</f>
-        <v>8876.3090639748298</v>
+        <v>8799.4689815334859</v>
       </c>
       <c r="DD20" s="16">
         <f>DC20*(1+Main!$L$10)</f>
-        <v>8876.3090639748298</v>
+        <v>8799.4689815334859</v>
       </c>
       <c r="DE20" s="16">
         <f>DD20*(1+Main!$L$10)</f>
-        <v>8876.3090639748298</v>
+        <v>8799.4689815334859</v>
       </c>
       <c r="DF20" s="16">
         <f>DE20*(1+Main!$L$10)</f>
-        <v>8876.3090639748298</v>
+        <v>8799.4689815334859</v>
       </c>
       <c r="DG20" s="16">
         <f>DF20*(1+Main!$L$10)</f>
-        <v>8876.3090639748298</v>
+        <v>8799.4689815334859</v>
       </c>
       <c r="DH20" s="16">
         <f>DG20*(1+Main!$L$10)</f>
-        <v>8876.3090639748298</v>
+        <v>8799.4689815334859</v>
       </c>
       <c r="DI20" s="16">
         <f>DH20*(1+Main!$L$10)</f>
-        <v>8876.3090639748298</v>
+        <v>8799.4689815334859</v>
       </c>
       <c r="DJ20" s="16">
         <f>DI20*(1+Main!$L$10)</f>
-        <v>8876.3090639748298</v>
+        <v>8799.4689815334859</v>
       </c>
       <c r="DK20" s="16">
         <f>DJ20*(1+Main!$L$10)</f>
-        <v>8876.3090639748298</v>
+        <v>8799.4689815334859</v>
       </c>
       <c r="DL20" s="16">
         <f>DK20*(1+Main!$L$10)</f>
-        <v>8876.3090639748298</v>
+        <v>8799.4689815334859</v>
       </c>
       <c r="DM20" s="16">
         <f>DL20*(1+Main!$L$10)</f>
-        <v>8876.3090639748298</v>
+        <v>8799.4689815334859</v>
       </c>
       <c r="DN20" s="16">
         <f>DM20*(1+Main!$L$10)</f>
-        <v>8876.3090639748298</v>
+        <v>8799.4689815334859</v>
       </c>
       <c r="DO20" s="16">
         <f>DN20*(1+Main!$L$10)</f>
-        <v>8876.3090639748298</v>
+        <v>8799.4689815334859</v>
       </c>
       <c r="DP20" s="16">
         <f>DO20*(1+Main!$L$10)</f>
-        <v>8876.3090639748298</v>
+        <v>8799.4689815334859</v>
       </c>
       <c r="DQ20" s="16">
         <f>DP20*(1+Main!$L$10)</f>
-        <v>8876.3090639748298</v>
+        <v>8799.4689815334859</v>
       </c>
       <c r="DR20" s="16">
         <f>DQ20*(1+Main!$L$10)</f>
-        <v>8876.3090639748298</v>
+        <v>8799.4689815334859</v>
       </c>
       <c r="DS20" s="16">
         <f>DR20*(1+Main!$L$10)</f>
-        <v>8876.3090639748298</v>
+        <v>8799.4689815334859</v>
       </c>
       <c r="DT20" s="16">
         <f>DS20*(1+Main!$L$10)</f>
-        <v>8876.3090639748298</v>
+        <v>8799.4689815334859</v>
       </c>
       <c r="DU20" s="16">
         <f>DT20*(1+Main!$L$10)</f>
-        <v>8876.3090639748298</v>
+        <v>8799.4689815334859</v>
       </c>
       <c r="DV20" s="16">
         <f>DU20*(1+Main!$L$10)</f>
-        <v>8876.3090639748298</v>
+        <v>8799.4689815334859</v>
       </c>
       <c r="DW20" s="16">
         <f>DV20*(1+Main!$L$10)</f>
-        <v>8876.3090639748298</v>
+        <v>8799.4689815334859</v>
       </c>
       <c r="DX20" s="16">
         <f>DW20*(1+Main!$L$10)</f>
-        <v>8876.3090639748298</v>
+        <v>8799.4689815334859</v>
       </c>
       <c r="DY20" s="16">
         <f>DX20*(1+Main!$L$10)</f>
-        <v>8876.3090639748298</v>
+        <v>8799.4689815334859</v>
       </c>
       <c r="DZ20" s="16">
         <f>DY20*(1+Main!$L$10)</f>
-        <v>8876.3090639748298</v>
+        <v>8799.4689815334859</v>
       </c>
       <c r="EA20" s="16">
         <f>DZ20*(1+Main!$L$10)</f>
-        <v>8876.3090639748298</v>
+        <v>8799.4689815334859</v>
       </c>
       <c r="EB20" s="16">
         <f>EA20*(1+Main!$L$10)</f>
-        <v>8876.3090639748298</v>
+        <v>8799.4689815334859</v>
       </c>
       <c r="EC20" s="16">
         <f>EB20*(1+Main!$L$10)</f>
-        <v>8876.3090639748298</v>
+        <v>8799.4689815334859</v>
       </c>
       <c r="ED20" s="16">
         <f>EC20*(1+Main!$L$10)</f>
-        <v>8876.3090639748298</v>
+        <v>8799.4689815334859</v>
       </c>
       <c r="EE20" s="16">
         <f>ED20*(1+Main!$L$10)</f>
-        <v>8876.3090639748298</v>
+        <v>8799.4689815334859</v>
       </c>
       <c r="EF20" s="16">
         <f>EE20*(1+Main!$L$10)</f>
-        <v>8876.3090639748298</v>
+        <v>8799.4689815334859</v>
       </c>
       <c r="EG20" s="16">
         <f>EF20*(1+Main!$L$10)</f>
-        <v>8876.3090639748298</v>
+        <v>8799.4689815334859</v>
       </c>
       <c r="EH20" s="16">
         <f>EG20*(1+Main!$L$10)</f>
-        <v>8876.3090639748298</v>
+        <v>8799.4689815334859</v>
       </c>
       <c r="EI20" s="16">
         <f>EH20*(1+Main!$L$10)</f>
-        <v>8876.3090639748298</v>
+        <v>8799.4689815334859</v>
       </c>
       <c r="EJ20" s="16">
         <f>EI20*(1+Main!$L$10)</f>
-        <v>8876.3090639748298</v>
+        <v>8799.4689815334859</v>
       </c>
       <c r="EK20" s="16">
         <f>EJ20*(1+Main!$L$10)</f>
-        <v>8876.3090639748298</v>
+        <v>8799.4689815334859</v>
       </c>
       <c r="EL20" s="16">
         <f>EK20*(1+Main!$L$10)</f>
-        <v>8876.3090639748298</v>
+        <v>8799.4689815334859</v>
       </c>
       <c r="EM20" s="16">
         <f>EL20*(1+Main!$L$10)</f>
-        <v>8876.3090639748298</v>
+        <v>8799.4689815334859</v>
       </c>
       <c r="EN20" s="16">
         <f>EM20*(1+Main!$L$10)</f>
-        <v>8876.3090639748298</v>
+        <v>8799.4689815334859</v>
       </c>
       <c r="EO20" s="16">
         <f>EN20*(1+Main!$L$10)</f>
-        <v>8876.3090639748298</v>
+        <v>8799.4689815334859</v>
       </c>
       <c r="EP20" s="16">
         <f>EO20*(1+Main!$L$10)</f>
-        <v>8876.3090639748298</v>
+        <v>8799.4689815334859</v>
       </c>
       <c r="EQ20" s="16">
         <f>EP20*(1+Main!$L$10)</f>
-        <v>8876.3090639748298</v>
+        <v>8799.4689815334859</v>
       </c>
       <c r="ER20" s="16">
         <f>EQ20*(1+Main!$L$10)</f>
-        <v>8876.3090639748298</v>
+        <v>8799.4689815334859</v>
       </c>
       <c r="ES20" s="16">
         <f>ER20*(1+Main!$L$10)</f>
-        <v>8876.3090639748298</v>
+        <v>8799.4689815334859</v>
       </c>
       <c r="ET20" s="16">
         <f>ES20*(1+Main!$L$10)</f>
-        <v>8876.3090639748298</v>
+        <v>8799.4689815334859</v>
       </c>
       <c r="EU20" s="16">
         <f>ET20*(1+Main!$L$10)</f>
-        <v>8876.3090639748298</v>
+        <v>8799.4689815334859</v>
       </c>
       <c r="EV20" s="16">
         <f>EU20*(1+Main!$L$10)</f>
-        <v>8876.3090639748298</v>
+        <v>8799.4689815334859</v>
       </c>
       <c r="EW20" s="16">
         <f>EV20*(1+Main!$L$10)</f>
-        <v>8876.3090639748298</v>
+        <v>8799.4689815334859</v>
       </c>
       <c r="EX20" s="16">
         <f>EW20*(1+Main!$L$10)</f>
-        <v>8876.3090639748298</v>
+        <v>8799.4689815334859</v>
       </c>
       <c r="EY20" s="16">
         <f>EX20*(1+Main!$L$10)</f>
-        <v>8876.3090639748298</v>
+        <v>8799.4689815334859</v>
       </c>
       <c r="EZ20" s="16">
         <f>EY20*(1+Main!$L$10)</f>
-        <v>8876.3090639748298</v>
+        <v>8799.4689815334859</v>
       </c>
       <c r="FA20" s="16">
         <f>EZ20*(1+Main!$L$10)</f>
-        <v>8876.3090639748298</v>
+        <v>8799.4689815334859</v>
       </c>
       <c r="FB20" s="16">
         <f>FA20*(1+Main!$L$10)</f>
-        <v>8876.3090639748298</v>
-      </c>
-    </row>
-    <row r="21" spans="2:158" s="11" customFormat="1" x14ac:dyDescent="0.2">
+        <v>8799.4689815334859</v>
+      </c>
+      <c r="FC20" s="16">
+        <f>FB20*(1+Main!$L$10)</f>
+        <v>8799.4689815334859</v>
+      </c>
+      <c r="FD20" s="16">
+        <f>FC20*(1+Main!$L$10)</f>
+        <v>8799.4689815334859</v>
+      </c>
+    </row>
+    <row r="21" spans="2:160" s="11" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B21" s="11" t="s">
         <v>24</v>
       </c>
       <c r="C21" s="13">
-        <f t="shared" ref="C21:H21" si="13">C20/C22</f>
+        <f t="shared" ref="C21:H21" si="16">C20/C22</f>
         <v>7.5787099684258312E-3</v>
       </c>
       <c r="D21" s="13">
-        <f t="shared" si="13"/>
+        <f t="shared" si="16"/>
         <v>1.2347234416154502E-2</v>
       </c>
       <c r="E21" s="13">
-        <f t="shared" si="13"/>
+        <f t="shared" si="16"/>
         <v>3.07548387096774E-2</v>
       </c>
       <c r="F21" s="13">
-        <f t="shared" si="13"/>
+        <f t="shared" si="16"/>
         <v>4.0640121845082575E-2</v>
       </c>
       <c r="G21" s="13">
-        <f t="shared" si="13"/>
+        <f t="shared" si="16"/>
         <v>4.397083333333332E-2</v>
       </c>
       <c r="H21" s="13">
-        <f t="shared" si="13"/>
+        <f t="shared" si="16"/>
         <v>5.5561723280861633E-2</v>
       </c>
       <c r="I21" s="13">
@@ -2496,50 +2611,58 @@
       </c>
       <c r="J21" s="13">
         <f>J20/J22</f>
-        <v>9.0633399267373987E-2</v>
-      </c>
-      <c r="K21" s="13"/>
+        <v>3.1253560126582279E-2</v>
+      </c>
+      <c r="K21" s="13">
+        <f t="shared" ref="K21:L21" si="17">K20/K22</f>
+        <v>3.8412207278480999E-2</v>
+      </c>
       <c r="L21" s="13">
-        <f>L20/L22</f>
+        <f t="shared" si="17"/>
+        <v>0.28261218354430384</v>
+      </c>
+      <c r="M21" s="13"/>
+      <c r="N21" s="13">
+        <f>N20/N22</f>
         <v>-1.0994944852941173</v>
       </c>
-      <c r="M21" s="13">
-        <f>M20/M22</f>
+      <c r="O21" s="13">
+        <f>O20/O22</f>
         <v>-1.0192842287694974</v>
       </c>
-      <c r="N21" s="13">
-        <f t="shared" ref="N21:Q21" si="14">N20/N22</f>
+      <c r="P21" s="13">
+        <f t="shared" ref="P21:S21" si="18">P20/P22</f>
         <v>-1.1914106230847801</v>
       </c>
-      <c r="O21" s="13">
-        <f t="shared" si="14"/>
+      <c r="Q21" s="13">
+        <f t="shared" si="18"/>
         <v>-0.27046725571725572</v>
       </c>
-      <c r="P21" s="13">
-        <f t="shared" si="14"/>
+      <c r="R21" s="13">
+        <f t="shared" si="18"/>
         <v>-0.18105862403100778</v>
       </c>
-      <c r="Q21" s="13">
-        <f t="shared" si="14"/>
+      <c r="S21" s="13">
+        <f t="shared" si="18"/>
         <v>9.130765883376854E-2</v>
       </c>
-      <c r="R21" s="13">
-        <f>R20/R22</f>
-        <v>0.24646137812056632</v>
-      </c>
-      <c r="S21" s="13">
-        <f>S20/S22</f>
-        <v>0.35700758032991048</v>
-      </c>
-      <c r="T21" s="12"/>
-      <c r="U21" s="12"/>
+      <c r="T21" s="13">
+        <f>T20/T22</f>
+        <v>0.18857201142390845</v>
+      </c>
+      <c r="U21" s="13">
+        <f>U20/U22</f>
+        <v>0.45402678231334143</v>
+      </c>
       <c r="V21" s="12"/>
       <c r="W21" s="12"/>
       <c r="X21" s="12"/>
       <c r="Y21" s="12"/>
       <c r="Z21" s="12"/>
-    </row>
-    <row r="22" spans="2:158" x14ac:dyDescent="0.2">
+      <c r="AA21" s="12"/>
+      <c r="AB21" s="12"/>
+    </row>
+    <row r="22" spans="2:160" x14ac:dyDescent="0.2">
       <c r="B22" s="1" t="s">
         <v>1</v>
       </c>
@@ -2553,7 +2676,7 @@
         <v>2325</v>
       </c>
       <c r="F22" s="4">
-        <f>Q22</f>
+        <f>S22</f>
         <v>2298</v>
       </c>
       <c r="G22" s="4">
@@ -2566,54 +2689,60 @@
         <v>2459</v>
       </c>
       <c r="J22" s="4">
-        <f>I22</f>
-        <v>2459</v>
-      </c>
-      <c r="K22" s="4"/>
-      <c r="L22" s="1">
+        <v>2528</v>
+      </c>
+      <c r="K22" s="4">
+        <f>J22</f>
+        <v>2528</v>
+      </c>
+      <c r="L22" s="4">
+        <f>K22</f>
+        <v>2528</v>
+      </c>
+      <c r="M22" s="4"/>
+      <c r="N22" s="1">
         <v>544</v>
       </c>
-      <c r="M22" s="4">
+      <c r="O22" s="4">
         <v>577</v>
       </c>
-      <c r="N22" s="4">
+      <c r="P22" s="4">
         <v>979</v>
       </c>
-      <c r="O22" s="4">
+      <c r="Q22" s="4">
         <v>1924</v>
       </c>
-      <c r="P22" s="4">
+      <c r="R22" s="4">
         <v>2064</v>
       </c>
-      <c r="Q22" s="4">
+      <c r="S22" s="4">
         <v>2298</v>
       </c>
-      <c r="R22" s="4">
-        <f>J22</f>
-        <v>2459</v>
-      </c>
-      <c r="S22" s="4">
-        <f>R22</f>
-        <v>2459</v>
-      </c>
-      <c r="T22" s="4"/>
-      <c r="U22" s="4"/>
+      <c r="T22" s="4">
+        <v>2451</v>
+      </c>
+      <c r="U22" s="4">
+        <f>T22</f>
+        <v>2451</v>
+      </c>
       <c r="V22" s="4"/>
       <c r="W22" s="4"/>
       <c r="X22" s="4"/>
       <c r="Y22" s="4"/>
       <c r="Z22" s="4"/>
-    </row>
-    <row r="24" spans="2:158" x14ac:dyDescent="0.2">
+      <c r="AA22" s="4"/>
+      <c r="AB22" s="4"/>
+    </row>
+    <row r="24" spans="2:160" x14ac:dyDescent="0.2">
       <c r="B24" s="1" t="s">
         <v>34</v>
       </c>
       <c r="G24" s="6">
-        <f t="shared" ref="G24:H24" si="15">G5/C5-1</f>
+        <f t="shared" ref="G24:H24" si="19">G5/C5-1</f>
         <v>0.20783493847893864</v>
       </c>
       <c r="H24" s="6">
-        <f t="shared" si="15"/>
+        <f t="shared" si="19"/>
         <v>0.2715401909183468</v>
       </c>
       <c r="I24" s="6">
@@ -2622,90 +2751,98 @@
       </c>
       <c r="J24" s="6">
         <f>J5/F5-1</f>
-        <v>0.27699999999999991</v>
-      </c>
-      <c r="K24" s="6"/>
-      <c r="M24" s="5">
-        <f t="shared" ref="M24:P24" si="16">M5/L5-1</f>
+        <v>0.36026793786471623</v>
+      </c>
+      <c r="K24" s="6">
+        <f t="shared" ref="K24:L24" si="20">K5/G5-1</f>
+        <v>0.33000000000000007</v>
+      </c>
+      <c r="L24" s="6">
+        <f t="shared" si="20"/>
+        <v>0.30000000000000004</v>
+      </c>
+      <c r="M24" s="6"/>
+      <c r="O24" s="5">
+        <f t="shared" ref="O24:R24" si="21">O5/N5-1</f>
         <v>0.24713432279323944</v>
       </c>
-      <c r="N24" s="5">
-        <f t="shared" si="16"/>
+      <c r="P24" s="5">
+        <f t="shared" si="21"/>
         <v>0.47150446768252863</v>
       </c>
-      <c r="O24" s="5">
-        <f t="shared" si="16"/>
+      <c r="Q24" s="5">
+        <f t="shared" si="21"/>
         <v>0.41111659206368234</v>
       </c>
-      <c r="P24" s="5">
-        <f t="shared" si="16"/>
+      <c r="R24" s="5">
+        <f t="shared" si="21"/>
         <v>0.23606238840798532</v>
       </c>
-      <c r="Q24" s="5">
-        <f>Q5/P5-1</f>
+      <c r="S24" s="5">
+        <f>S5/R5-1</f>
         <v>0.16745152216493153</v>
       </c>
-      <c r="R24" s="5">
-        <f>R5/Q5-1</f>
-        <v>0.26509472757899699</v>
-      </c>
-      <c r="S24" s="7">
-        <v>0.2475</v>
-      </c>
-      <c r="T24" s="7">
-        <v>0.3</v>
+      <c r="T24" s="5">
+        <f>T5/S5-1</f>
+        <v>0.28786136883756108</v>
       </c>
       <c r="U24" s="7">
+        <v>0.29449999999999998</v>
+      </c>
+      <c r="V24" s="7">
+        <v>0.22</v>
+      </c>
+      <c r="W24" s="7">
         <v>0.28000000000000003</v>
       </c>
-      <c r="V24" s="7">
+      <c r="X24" s="7">
         <v>0.26</v>
       </c>
-      <c r="W24" s="7">
+      <c r="Y24" s="7">
         <v>0.24</v>
       </c>
-      <c r="X24" s="7">
+      <c r="Z24" s="7">
         <v>0.22</v>
       </c>
-      <c r="Y24" s="7">
+      <c r="AA24" s="7">
         <v>0.2</v>
       </c>
-      <c r="Z24" s="7">
+      <c r="AB24" s="7">
         <v>0.15</v>
       </c>
-      <c r="AA24" s="7">
+      <c r="AC24" s="7">
         <v>0.1</v>
       </c>
-      <c r="AB24" s="7">
+      <c r="AD24" s="7">
         <v>0.05</v>
       </c>
     </row>
-    <row r="25" spans="2:158" x14ac:dyDescent="0.2">
+    <row r="25" spans="2:160" x14ac:dyDescent="0.2">
       <c r="B25" s="1" t="s">
         <v>25</v>
       </c>
       <c r="C25" s="6">
-        <f t="shared" ref="C25:F25" si="17">C7/C5</f>
+        <f t="shared" ref="C25:F25" si="22">C7/C5</f>
         <v>0.79503452110299977</v>
       </c>
       <c r="D25" s="6">
-        <f t="shared" si="17"/>
+        <f t="shared" si="22"/>
         <v>0.79955823647099189</v>
       </c>
       <c r="E25" s="6">
-        <f t="shared" si="17"/>
+        <f t="shared" si="22"/>
         <v>0.80664649320354953</v>
       </c>
       <c r="F25" s="6">
-        <f t="shared" si="17"/>
+        <f t="shared" si="22"/>
         <v>0.82142023506205308</v>
       </c>
       <c r="G25" s="6">
-        <f t="shared" ref="G25:H25" si="18">G7/G5</f>
+        <f t="shared" ref="G25:H25" si="23">G7/G5</f>
         <v>0.81672862101907817</v>
       </c>
       <c r="H25" s="6">
-        <f t="shared" si="18"/>
+        <f t="shared" si="23"/>
         <v>0.81041799998230435</v>
       </c>
       <c r="I25" s="6">
@@ -2714,60 +2851,68 @@
       </c>
       <c r="J25" s="6">
         <f>J7/J5</f>
-        <v>0.82799286540824213</v>
-      </c>
-      <c r="K25" s="6"/>
-      <c r="L25" s="5">
-        <f t="shared" ref="L25" si="19">L7/L5</f>
+        <v>0.7890888305887841</v>
+      </c>
+      <c r="K25" s="6">
+        <f t="shared" ref="K25:L25" si="24">K7/K5</f>
+        <v>0.81672862101907806</v>
+      </c>
+      <c r="L25" s="6">
+        <f t="shared" si="24"/>
+        <v>0.81041799998230446</v>
+      </c>
+      <c r="M25" s="6"/>
+      <c r="N25" s="5">
+        <f t="shared" ref="N25" si="25">N7/N5</f>
         <v>0.72220608019025578</v>
       </c>
-      <c r="M25" s="5">
-        <f t="shared" ref="M25:P25" si="20">M7/M5</f>
+      <c r="O25" s="5">
+        <f t="shared" ref="O25:R25" si="26">O7/O5</f>
         <v>0.67359589525355024</v>
       </c>
-      <c r="N25" s="5">
-        <f t="shared" si="20"/>
+      <c r="P25" s="5">
+        <f t="shared" si="26"/>
         <v>0.67735360899372454</v>
       </c>
-      <c r="O25" s="5">
-        <f t="shared" si="20"/>
+      <c r="Q25" s="5">
+        <f t="shared" si="26"/>
         <v>0.77987779924495215</v>
       </c>
-      <c r="P25" s="5">
-        <f t="shared" si="20"/>
+      <c r="R25" s="5">
+        <f t="shared" si="26"/>
         <v>0.78563659345254744</v>
       </c>
-      <c r="Q25" s="5">
-        <f>Q7/Q5</f>
+      <c r="S25" s="5">
+        <f>S7/S5</f>
         <v>0.80624598878567844</v>
       </c>
-      <c r="R25" s="5">
-        <f>R7/R5</f>
-        <v>0.81345976063137548</v>
-      </c>
-    </row>
-    <row r="26" spans="2:158" x14ac:dyDescent="0.2">
+      <c r="T25" s="5">
+        <f>T7/T5</f>
+        <v>0.80248172487451619</v>
+      </c>
+    </row>
+    <row r="26" spans="2:160" x14ac:dyDescent="0.2">
       <c r="B26" s="1" t="s">
         <v>26</v>
       </c>
       <c r="C26" s="6">
-        <f t="shared" ref="C26:G26" si="21">C18/C17</f>
+        <f t="shared" ref="C26:G26" si="27">C18/C17</f>
         <v>8.0693164362518943E-2</v>
       </c>
       <c r="D26" s="6">
-        <f t="shared" si="21"/>
+        <f t="shared" si="27"/>
         <v>7.226308957161412E-2</v>
       </c>
       <c r="E26" s="6">
-        <f t="shared" si="21"/>
+        <f t="shared" si="27"/>
         <v>8.1656641948755201E-2</v>
       </c>
       <c r="F26" s="6">
-        <f t="shared" si="21"/>
+        <f t="shared" si="27"/>
         <v>8.7851892288723643E-2</v>
       </c>
       <c r="G26" s="6">
-        <f t="shared" si="21"/>
+        <f t="shared" si="27"/>
         <v>4.2040713111644971E-2</v>
       </c>
       <c r="H26" s="6">
@@ -2780,60 +2925,68 @@
       </c>
       <c r="J26" s="6">
         <f>J18/J17</f>
-        <v>4.9691377664651613E-2</v>
-      </c>
-      <c r="K26" s="6"/>
-      <c r="L26" s="5">
-        <f t="shared" ref="L26" si="22">L18/L17</f>
+        <v>4.472422955623432E-2</v>
+      </c>
+      <c r="K26" s="6">
+        <f t="shared" ref="K26:L26" si="28">K18/K17</f>
+        <v>0</v>
+      </c>
+      <c r="L26" s="6">
+        <f t="shared" si="28"/>
+        <v>0</v>
+      </c>
+      <c r="M26" s="6"/>
+      <c r="N26" s="5">
+        <f t="shared" ref="N26" si="29">N18/N17</f>
         <v>-1.5942549371633759E-2</v>
       </c>
-      <c r="M26" s="5">
-        <f t="shared" ref="M26:P26" si="23">M18/M17</f>
+      <c r="O26" s="5">
+        <f t="shared" ref="O26:R26" si="30">O18/O17</f>
         <v>-2.1814970269941527E-2</v>
       </c>
-      <c r="N26" s="5">
-        <f t="shared" si="23"/>
+      <c r="P26" s="5">
+        <f t="shared" si="30"/>
         <v>1.0717311817286631E-2</v>
       </c>
-      <c r="O26" s="5">
-        <f t="shared" si="23"/>
+      <c r="Q26" s="5">
+        <f t="shared" si="30"/>
         <v>-6.527204018882525E-2</v>
       </c>
-      <c r="P26" s="5">
-        <f t="shared" si="23"/>
+      <c r="R26" s="5">
+        <f t="shared" si="30"/>
         <v>-2.7884341060363905E-2</v>
       </c>
-      <c r="Q26" s="5">
-        <f>Q18/Q17</f>
+      <c r="S26" s="5">
+        <f>S18/S17</f>
         <v>8.3157943574408102E-2</v>
       </c>
-      <c r="R26" s="5">
-        <f>R18/R17</f>
-        <v>4.5585987623711702E-2</v>
-      </c>
-    </row>
-    <row r="27" spans="2:158" x14ac:dyDescent="0.2">
+      <c r="T26" s="5">
+        <f>T18/T17</f>
+        <v>4.3450885474055234E-2</v>
+      </c>
+    </row>
+    <row r="27" spans="2:160" x14ac:dyDescent="0.2">
       <c r="B27" s="1" t="s">
         <v>36</v>
       </c>
       <c r="C27" s="6">
-        <f t="shared" ref="C27:G27" si="24">C20/C5</f>
+        <f t="shared" ref="C27:G27" si="31">C20/C5</f>
         <v>3.1992475046935878E-2</v>
       </c>
       <c r="D27" s="6">
-        <f t="shared" si="24"/>
+        <f t="shared" si="31"/>
         <v>5.273974015454215E-2</v>
       </c>
       <c r="E27" s="6">
-        <f t="shared" si="24"/>
+        <f t="shared" si="31"/>
         <v>0.12810865721057971</v>
       </c>
       <c r="F27" s="6">
-        <f t="shared" si="24"/>
+        <f t="shared" si="31"/>
         <v>0.15351524615763915</v>
       </c>
       <c r="G27" s="6">
-        <f t="shared" si="24"/>
+        <f t="shared" si="31"/>
         <v>0.16636241246780104</v>
       </c>
       <c r="H27" s="6">
@@ -2846,118 +2999,126 @@
       </c>
       <c r="J27" s="6">
         <f>J20/J5</f>
-        <v>0.28688139754698389</v>
-      </c>
-      <c r="K27" s="6"/>
-      <c r="L27" s="5">
-        <f t="shared" ref="L27" si="25">L20/L5</f>
+        <v>9.5476961858277573E-2</v>
+      </c>
+      <c r="K27" s="6">
+        <f t="shared" ref="K27:L27" si="32">K20/K5</f>
+        <v>0.11509963960533642</v>
+      </c>
+      <c r="L27" s="6">
+        <f t="shared" si="32"/>
+        <v>0.81041799998230446</v>
+      </c>
+      <c r="M27" s="6"/>
+      <c r="N27" s="5">
+        <f t="shared" ref="N27" si="33">N20/N5</f>
         <v>-1.0045615702819404</v>
       </c>
-      <c r="M27" s="5">
-        <f t="shared" ref="M27:R27" si="26">M20/M5</f>
+      <c r="O27" s="5">
+        <f t="shared" ref="O27:T27" si="34">O20/O5</f>
         <v>-0.79203156668529606</v>
       </c>
-      <c r="N27" s="5">
-        <f t="shared" si="26"/>
+      <c r="P27" s="5">
+        <f t="shared" si="34"/>
         <v>-1.0674657468428337</v>
       </c>
-      <c r="O27" s="5">
-        <f t="shared" si="26"/>
+      <c r="Q27" s="5">
+        <f t="shared" si="34"/>
         <v>-0.33749446296069308</v>
       </c>
-      <c r="P27" s="5">
-        <f t="shared" si="26"/>
+      <c r="R27" s="5">
+        <f t="shared" si="34"/>
         <v>-0.19608095196369535</v>
       </c>
-      <c r="Q27" s="5">
-        <f>Q20/Q5</f>
+      <c r="S27" s="5">
+        <f>S20/S5</f>
         <v>9.4302862186810721E-2</v>
       </c>
-      <c r="R27" s="5">
-        <f t="shared" si="26"/>
-        <v>0.21530395021394391</v>
-      </c>
-      <c r="S27" s="5">
-        <v>0.25</v>
-      </c>
       <c r="T27" s="5">
+        <f t="shared" si="34"/>
+        <v>0.16129431894600141</v>
+      </c>
+      <c r="U27" s="5">
+        <v>0.3</v>
+      </c>
+      <c r="V27" s="5">
         <v>0.5</v>
       </c>
-      <c r="U27" s="5">
-        <f>T27</f>
+      <c r="W27" s="5">
+        <f t="shared" ref="W27:AD27" si="35">V27</f>
         <v>0.5</v>
       </c>
-      <c r="V27" s="5">
-        <f>U27</f>
+      <c r="X27" s="5">
+        <f t="shared" si="35"/>
         <v>0.5</v>
       </c>
-      <c r="W27" s="5">
-        <f>V27</f>
+      <c r="Y27" s="5">
+        <f t="shared" si="35"/>
         <v>0.5</v>
       </c>
-      <c r="X27" s="5">
-        <f>W27</f>
+      <c r="Z27" s="5">
+        <f t="shared" si="35"/>
         <v>0.5</v>
       </c>
-      <c r="Y27" s="5">
-        <f>X27</f>
+      <c r="AA27" s="5">
+        <f t="shared" si="35"/>
         <v>0.5</v>
       </c>
-      <c r="Z27" s="5">
-        <f>Y27</f>
+      <c r="AB27" s="5">
+        <f t="shared" si="35"/>
         <v>0.5</v>
       </c>
-      <c r="AA27" s="7">
-        <f>Z27</f>
+      <c r="AC27" s="7">
+        <f t="shared" si="35"/>
         <v>0.5</v>
       </c>
-      <c r="AB27" s="7">
-        <f>AA27</f>
+      <c r="AD27" s="7">
+        <f t="shared" si="35"/>
         <v>0.5</v>
       </c>
     </row>
-    <row r="28" spans="2:158" x14ac:dyDescent="0.2">
+    <row r="28" spans="2:160" x14ac:dyDescent="0.2">
       <c r="B28" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="M28" s="5">
-        <f t="shared" ref="M28:R28" si="27">M9/L9-1</f>
+      <c r="O28" s="5">
+        <f t="shared" ref="O28:T28" si="36">O9/N9-1</f>
         <v>7.0456926057361757E-2</v>
       </c>
-      <c r="N28" s="5">
-        <f t="shared" si="27"/>
+      <c r="P28" s="5">
+        <f t="shared" si="36"/>
         <v>0.83484256929013001</v>
       </c>
-      <c r="O28" s="5">
-        <f t="shared" si="27"/>
+      <c r="Q28" s="5">
+        <f t="shared" si="36"/>
         <v>-0.30887347055256298</v>
       </c>
-      <c r="P28" s="5">
-        <f t="shared" si="27"/>
+      <c r="R28" s="5">
+        <f t="shared" si="36"/>
         <v>-7.176498824476707E-2</v>
       </c>
-      <c r="Q28" s="5">
-        <f>Q9/P9-1</f>
+      <c r="S28" s="5">
+        <f>S9/R9-1</f>
         <v>0.12495864367950316</v>
       </c>
-      <c r="R28" s="5">
-        <f t="shared" si="27"/>
-        <v>0.12185881213175698</v>
-      </c>
-    </row>
-    <row r="30" spans="2:158" x14ac:dyDescent="0.2">
+      <c r="T28" s="5">
+        <f t="shared" si="36"/>
+        <v>0.25518506069832747</v>
+      </c>
+    </row>
+    <row r="30" spans="2:160" x14ac:dyDescent="0.2">
       <c r="B30" s="1" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="32" spans="2:158" x14ac:dyDescent="0.2">
-      <c r="AA32" s="3"/>
-    </row>
-    <row r="35" spans="27:27" x14ac:dyDescent="0.2">
-      <c r="AA35" s="3"/>
-    </row>
-    <row r="36" spans="27:27" x14ac:dyDescent="0.2">
-      <c r="AA36" s="3"/>
+    <row r="32" spans="2:160" x14ac:dyDescent="0.2">
+      <c r="AC32" s="3"/>
+    </row>
+    <row r="35" spans="29:29" x14ac:dyDescent="0.2">
+      <c r="AC35" s="3"/>
+    </row>
+    <row r="36" spans="29:29" x14ac:dyDescent="0.2">
+      <c r="AC36" s="3"/>
     </row>
   </sheetData>
   <phoneticPr fontId="5" type="noConversion"/>
